--- a/Ejercicios/ACH_Ejercicio.xlsx
+++ b/Ejercicios/ACH_Ejercicio.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sinna\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programacion\metodos\Metodos\Ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806CDCA6-9FE2-431D-8DF8-4310A556B50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3F2C48-8E7D-4C12-A27A-B47C41938AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14C4C042-FA0C-481E-B8BF-439C66C05020}"/>
   </bookViews>
@@ -209,27 +209,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -253,16 +241,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -271,10 +259,25 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -289,10 +292,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -301,192 +304,49 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -504,121 +364,88 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -938,7 +765,7 @@
   <dimension ref="B1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F21" sqref="F20:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,371 +781,371 @@
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1"/>
     </row>
-    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="31" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
-      <c r="H3" s="20" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="16"/>
+      <c r="H3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="4">
         <v>1</v>
       </c>
-      <c r="J3" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K3" s="19">
+      <c r="J3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K3" s="21">
         <f>(1-$C$14)*J3+SUM(F4:F7)</f>
         <v>0.25200897170462389</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="23">
         <f>(1-$C$14)*K3+SUM(F9:F12)</f>
         <v>0.39670606146282161</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="8">
+      <c r="B4" s="17">
         <v>1</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="11">
+      <c r="D4" s="3"/>
+      <c r="E4" s="4">
         <f>I3+I4+I5+I14+I14+I16+I18</f>
         <v>25</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="5">
         <f>1/E4</f>
         <v>0.04</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="4">
         <v>6</v>
       </c>
-      <c r="J4" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K4" s="19">
+      <c r="J4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K4" s="21">
         <f>(1-$C$14)*J4+F4</f>
         <v>0.13900000000000001</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="23">
         <f t="shared" ref="L4:L30" si="0">(1-$C$14)*K4+SUM(F10:F13)</f>
         <v>0.23720813185619638</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="9">
+      <c r="B5" s="17">
         <v>2</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="4">
         <f>I3+I7+I8+I8+I9+I11+I20+I27+I25+I26+I26+I24</f>
         <v>46</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="5">
         <f t="shared" ref="F5:F7" si="1">1/E5</f>
         <v>2.1739130434782608E-2</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="4">
         <v>4</v>
       </c>
-      <c r="J5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K5" s="19">
+      <c r="J5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K5" s="21">
         <f>(1-$C$14)*J5+F4</f>
         <v>0.13900000000000001</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="23">
         <f t="shared" si="0"/>
         <v>0.20690510155316608</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="9">
+      <c r="B6" s="17">
         <v>3</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="3">
+      <c r="D6" s="3"/>
+      <c r="E6" s="4">
         <f>I3+I6+I12+I16+I15+I22+I21+I24</f>
         <v>28</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="5">
         <f t="shared" si="1"/>
         <v>3.5714285714285712E-2</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="4">
         <v>2</v>
       </c>
-      <c r="J6" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K6" s="19">
+      <c r="J6" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K6" s="21">
         <f>(1-$C$14)*J6+F6+F7</f>
         <v>0.19026984126984128</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="23">
         <f t="shared" si="0"/>
         <v>0.2206252073732719</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="17">
         <v>4</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="12">
+      <c r="D7" s="3"/>
+      <c r="E7" s="4">
         <f>I3+I6+I13+I19+I28+I28+I25+I24</f>
         <v>18</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="5">
         <f t="shared" si="1"/>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="4">
         <v>2</v>
       </c>
-      <c r="J7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K7" s="19">
+      <c r="J7" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K7" s="21">
         <f>(1-$C$14)*J7+F5</f>
         <v>0.12073913043478261</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="23">
         <f t="shared" si="0"/>
         <v>0.11953173913043479</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="31" t="s">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
-      <c r="H8" s="20" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="16"/>
+      <c r="H8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="4">
         <v>1</v>
       </c>
-      <c r="J8" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K8" s="19">
+      <c r="J8" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K8" s="21">
         <f>(1-$C$14)*J8+F5+F5</f>
         <v>0.14247826086956522</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="23">
         <f t="shared" si="0"/>
         <v>0.14105347826086956</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
+      <c r="B9" s="17">
         <v>1</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="6">
+      <c r="D9" s="6"/>
+      <c r="E9" s="7">
         <v>21</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="18">
         <f>1/E9</f>
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="4">
         <v>2</v>
       </c>
-      <c r="J9" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K9" s="19">
+      <c r="J9" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K9" s="21">
         <f>(1-$C$14)*J9+F5</f>
         <v>0.12073913043478261</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="23">
         <f t="shared" si="0"/>
         <v>0.11953173913043479</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="9">
+      <c r="B10" s="17">
         <v>2</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="4">
+      <c r="D10" s="6"/>
+      <c r="E10" s="7">
         <v>33</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="18">
         <f>1/E10</f>
         <v>3.0303030303030304E-2</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="4">
         <v>2</v>
       </c>
-      <c r="J10" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K10" s="19">
+      <c r="J10" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K10" s="21">
         <f t="shared" ref="K10:K30" si="2">(1-$C$14)*J10</f>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="L10" s="19">
+      <c r="L10" s="23">
         <f t="shared" si="0"/>
         <v>9.801E-2</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="9">
+      <c r="B11" s="17">
         <v>3</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="4">
+      <c r="D11" s="6"/>
+      <c r="E11" s="7">
         <v>27</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="18">
         <f>1/E11</f>
         <v>3.7037037037037035E-2</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="4">
         <v>3</v>
       </c>
-      <c r="J11" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K11" s="19">
+      <c r="J11" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K11" s="21">
         <f>(1-$C$14)*J11+F5</f>
         <v>0.12073913043478261</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="23">
         <f t="shared" si="0"/>
         <v>0.11953173913043479</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10">
+      <c r="B12" s="19">
         <v>4</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="5">
+      <c r="D12" s="8"/>
+      <c r="E12" s="9">
         <v>31</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="20">
         <f>1/E12</f>
         <v>3.2258064516129031E-2</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="4">
         <v>3</v>
       </c>
-      <c r="J12" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K12" s="19">
+      <c r="J12" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K12" s="21">
         <f>(1-$C$14)*J12+F6</f>
         <v>0.13471428571428573</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="23">
         <f t="shared" si="0"/>
         <v>0.13336714285714288</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="4">
         <v>3</v>
       </c>
-      <c r="J13" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K13" s="19">
+      <c r="J13" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K13" s="21">
         <f>(1-$C$14)*J13+F7</f>
         <v>0.15455555555555556</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="23">
         <f t="shared" si="0"/>
         <v>0.15301000000000001</v>
       </c>
@@ -1330,341 +1157,341 @@
       <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="4">
         <v>2</v>
       </c>
-      <c r="J14" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K14" s="19">
+      <c r="J14" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K14" s="21">
         <f>(1-$C$14)*J14+F4+F4</f>
         <v>0.17900000000000002</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L14" s="23">
         <f t="shared" si="0"/>
         <v>0.17721000000000001</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="4">
         <v>5</v>
       </c>
-      <c r="J15" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K15" s="19">
+      <c r="J15" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K15" s="21">
         <f>(1-$C$14)*J15+F6</f>
         <v>0.13471428571428573</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="23">
         <f t="shared" si="0"/>
         <v>0.13336714285714288</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="4">
         <v>7</v>
       </c>
-      <c r="J16" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K16" s="19">
+      <c r="J16" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K16" s="21">
         <f>(1-$C$14)*J16+F4</f>
         <v>0.13900000000000001</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="23">
         <f t="shared" si="0"/>
         <v>0.13761000000000001</v>
       </c>
     </row>
     <row r="17" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="4">
         <v>2</v>
       </c>
-      <c r="J17" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K17" s="19">
+      <c r="J17" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K17" s="21">
         <f>(1-$C$14)*J17</f>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="23">
         <f t="shared" si="0"/>
         <v>9.801E-2</v>
       </c>
     </row>
     <row r="18" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="4">
         <v>3</v>
       </c>
-      <c r="J18" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K18" s="19">
+      <c r="J18" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K18" s="21">
         <f>(1-$C$14)*J18+F4</f>
         <v>0.13900000000000001</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="23">
         <f t="shared" si="0"/>
         <v>0.13761000000000001</v>
       </c>
     </row>
     <row r="19" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="4">
         <v>3</v>
       </c>
-      <c r="J19" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K19" s="19">
+      <c r="J19" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K19" s="21">
         <f>(1-$C$14)*J19+F7</f>
         <v>0.15455555555555556</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="23">
         <f t="shared" si="0"/>
         <v>0.15301000000000001</v>
       </c>
     </row>
     <row r="20" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="4">
         <v>6</v>
       </c>
-      <c r="J20" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K20" s="19">
+      <c r="J20" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K20" s="21">
         <f>(1-$C$14)*J20+F5</f>
         <v>0.12073913043478261</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="23">
         <f t="shared" si="0"/>
         <v>0.11953173913043479</v>
       </c>
     </row>
     <row r="21" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="4">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K21" s="19">
+      <c r="J21" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K21" s="21">
         <f>(1-$C$14)*J21+F6</f>
         <v>0.13471428571428573</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L21" s="23">
         <f t="shared" si="0"/>
         <v>0.13336714285714288</v>
       </c>
     </row>
     <row r="22" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="4">
         <v>6</v>
       </c>
-      <c r="J22" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K22" s="19">
+      <c r="J22" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K22" s="21">
         <f>(1-$C$14)*J22</f>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L22" s="23">
         <f t="shared" si="0"/>
         <v>9.801E-2</v>
       </c>
     </row>
     <row r="23" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H23" s="21" t="s">
+      <c r="H23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="4">
         <v>12</v>
       </c>
-      <c r="J23" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K23" s="19">
+      <c r="J23" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K23" s="21">
         <f>(1-$C$14)*J23</f>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L23" s="23">
         <f t="shared" si="0"/>
         <v>9.801E-2</v>
       </c>
     </row>
     <row r="24" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H24" s="21" t="s">
+      <c r="H24" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="4">
         <v>1</v>
       </c>
-      <c r="J24" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K24" s="19">
+      <c r="J24" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K24" s="21">
         <f>(1-$C$14)*J24+SUM(F5:F7)</f>
         <v>0.21200897170462388</v>
       </c>
-      <c r="L24" s="19">
+      <c r="L24" s="23">
         <f t="shared" si="0"/>
         <v>0.20988888198757763</v>
       </c>
     </row>
     <row r="25" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H25" s="21" t="s">
+      <c r="H25" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="4">
         <v>2</v>
       </c>
-      <c r="J25" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K25" s="19">
+      <c r="J25" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K25" s="21">
         <f>(1-$C$14)*J25+F5+F7</f>
         <v>0.17629468599033815</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L25" s="23">
         <f t="shared" si="0"/>
         <v>0.17453173913043477</v>
       </c>
     </row>
     <row r="26" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="4">
         <v>10</v>
       </c>
-      <c r="J26" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K26" s="19">
+      <c r="J26" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K26" s="21">
         <f>(1-$C$14)*J26+F5+F5</f>
         <v>0.14247826086956522</v>
       </c>
-      <c r="L26" s="19">
+      <c r="L26" s="23">
         <f t="shared" si="0"/>
         <v>0.14105347826086956</v>
       </c>
     </row>
     <row r="27" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H27" s="21" t="s">
+      <c r="H27" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="4">
         <v>7</v>
       </c>
-      <c r="J27" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K27" s="19">
+      <c r="J27" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K27" s="21">
         <f>(1-$C$14)*J27+F5</f>
         <v>0.12073913043478261</v>
       </c>
-      <c r="L27" s="19">
+      <c r="L27" s="23">
         <f t="shared" si="0"/>
         <v>0.11953173913043479</v>
       </c>
     </row>
     <row r="28" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H28" s="21" t="s">
+      <c r="H28" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="4">
         <v>3</v>
       </c>
-      <c r="J28" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K28" s="19">
+      <c r="J28" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K28" s="21">
         <f>(1-$C$14)*J28+F7+F7</f>
         <v>0.21011111111111111</v>
       </c>
-      <c r="L28" s="19">
+      <c r="L28" s="23">
         <f t="shared" si="0"/>
         <v>0.20801</v>
       </c>
     </row>
     <row r="29" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="4">
         <v>1</v>
       </c>
-      <c r="J29" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K29" s="19">
+      <c r="J29" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K29" s="21">
         <f>(1-$C$14)*J29</f>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="L29" s="19">
+      <c r="L29" s="23">
         <f t="shared" si="0"/>
         <v>9.801E-2</v>
       </c>
     </row>
-    <row r="30" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H30" s="21" t="s">
+    <row r="30" spans="8:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="26">
         <v>4</v>
       </c>
-      <c r="J30" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K30" s="19">
+      <c r="J30" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="K30" s="27">
         <f t="shared" si="2"/>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="L30" s="19">
+      <c r="L30" s="28">
         <f t="shared" si="0"/>
         <v>9.801E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1874,20 +1701,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6801e132-7148-4b44-8e8b-5d95fcb43647" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6801e132-7148-4b44-8e8b-5d95fcb43647" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1911,6 +1738,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACC582DB-57D8-4689-BFCA-91677402ECD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F27E5C5-38F3-4C76-A5F9-3153DC64880D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1920,12 +1755,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACC582DB-57D8-4689-BFCA-91677402ECD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>